--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -37,39 +37,6 @@
     <t>MenuIcon</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Gujarati_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Hindu_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Kannada_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Malayalam_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Bengali_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Assamese_Boy.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Assamese_Girl.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Bengali_Girl.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Gujarati_Girl.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Hindu_Girl.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Kannada_Girl.png</t>
-  </si>
-  <si>
     <t>https://www.calculator.net/bmi-calculator.html</t>
   </si>
   <si>
@@ -101,13 +68,46 @@
   </si>
   <si>
     <t>https://www.calculator.net/calories-burned-calculator.html</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/01.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/02.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/03.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/04.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/05.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/06.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/07.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/08.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/09.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/11.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,15 +153,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -467,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,106 +501,112 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -700,8 +717,24 @@
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
     </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>